--- a/files/macOS软件下载站分享.xlsx
+++ b/files/macOS软件下载站分享.xlsx
@@ -14,26 +14,134 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t/>
   </si>
   <si>
+    <t>在线工具</t>
+  </si>
+  <si>
+    <t>多媒体资源</t>
+  </si>
+  <si>
+    <t>站点名称</t>
+  </si>
+  <si>
+    <t>链接</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>在线Cron表达式生成器</t>
+  </si>
+  <si>
+    <t>阿里云盘发布频道</t>
+  </si>
+  <si>
+    <t>时间戳转换工具</t>
+  </si>
+  <si>
+    <t>模拟各种HTTP请求</t>
+  </si>
+  <si>
+    <t>用于HTTP请求和响应的调试、测试和教学</t>
+  </si>
+  <si>
+    <t>网盘资源社</t>
+  </si>
+  <si>
+    <t>macOS App icons</t>
+  </si>
+  <si>
+    <t>macOS圆角图标</t>
+  </si>
+  <si>
+    <t>歌曲宝</t>
+  </si>
+  <si>
+    <t>音乐下载</t>
+  </si>
+  <si>
+    <t>JSON工具</t>
+  </si>
+  <si>
+    <t>TuneFree</t>
+  </si>
+  <si>
+    <t>音乐在线播放和下载, 可登录网易云音乐账号</t>
+  </si>
+  <si>
+    <t>木及简历</t>
+  </si>
+  <si>
+    <t>相声随身听</t>
+  </si>
+  <si>
+    <t>银行联行号查询</t>
+  </si>
+  <si>
+    <t>我不是盐神</t>
+  </si>
+  <si>
+    <t>知乎盐选</t>
+  </si>
+  <si>
+    <t>电信网码号资源使用和调整审批系统</t>
+  </si>
+  <si>
+    <t>举报骚扰短信</t>
+  </si>
+  <si>
+    <t>wallhaven</t>
+  </si>
+  <si>
+    <t>高清壁纸</t>
+  </si>
+  <si>
+    <t>Greasy Fork</t>
+  </si>
+  <si>
+    <t>油猴脚本</t>
+  </si>
+  <si>
+    <t>Wallpaper Abyss</t>
+  </si>
+  <si>
+    <t>OpenYYY 开源云音乐</t>
+  </si>
+  <si>
+    <t>多种云音乐格式转MP3</t>
+  </si>
+  <si>
+    <t>大巫小站</t>
+  </si>
+  <si>
+    <t>软件推荐、影视推荐等</t>
+  </si>
+  <si>
+    <t>EDUMAIL</t>
+  </si>
+  <si>
+    <t>免费临时教育邮箱(收件)</t>
+  </si>
+  <si>
+    <t>报刊大全</t>
+  </si>
+  <si>
+    <t>红心歌单助手</t>
+  </si>
+  <si>
+    <t>支持网易云音乐, QQ音乐, 眯咕音乐, 酷狗音乐*, Spotify, Apple Music歌单的互相迁移</t>
+  </si>
+  <si>
     <t>macOS</t>
   </si>
   <si>
     <t>iOS</t>
   </si>
   <si>
-    <t>站点名称</t>
-  </si>
-  <si>
-    <t>链接</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
     <t>tg频道</t>
   </si>
   <si>
@@ -193,115 +301,349 @@
     <t>ios游戏破解分享</t>
   </si>
   <si>
+    <t>黑科技软件资源分享</t>
+  </si>
+  <si>
+    <t>Applehub心动资源发布频道</t>
+  </si>
+  <si>
+    <t>AppleP12</t>
+  </si>
+  <si>
+    <t>苹果企业证书分享</t>
+  </si>
+  <si>
     <t>安卓免费破解软件分享</t>
   </si>
   <si>
     <t>安卓免费破解频道</t>
   </si>
   <si>
-    <t>黑科技软件资源分享</t>
-  </si>
-  <si>
-    <t>在线工具</t>
-  </si>
-  <si>
-    <t>多媒体资源</t>
-  </si>
-  <si>
-    <t>在线Cron表达式生成器</t>
-  </si>
-  <si>
-    <t>阿里云盘发布频道</t>
-  </si>
-  <si>
-    <t>时间戳转换工具</t>
-  </si>
-  <si>
-    <t>模拟各种HTTP请求</t>
-  </si>
-  <si>
-    <t>用于HTTP请求和响应的调试、测试和教学</t>
-  </si>
-  <si>
-    <t>网盘资源社</t>
-  </si>
-  <si>
-    <t>macOS App icons</t>
-  </si>
-  <si>
-    <t>macOS圆角图标</t>
-  </si>
-  <si>
-    <t>歌曲宝</t>
-  </si>
-  <si>
-    <t>音乐下载</t>
-  </si>
-  <si>
-    <t>JSON工具</t>
-  </si>
-  <si>
-    <t>TuneFree</t>
-  </si>
-  <si>
-    <t>音乐在线播放和下载, 可登录网易云音乐账号</t>
-  </si>
-  <si>
-    <t>木及简历</t>
-  </si>
-  <si>
-    <t>相声随身听</t>
-  </si>
-  <si>
-    <t>银行联行号查询</t>
-  </si>
-  <si>
-    <t>我不是盐神</t>
-  </si>
-  <si>
-    <t>知乎盐选</t>
-  </si>
-  <si>
-    <t>电信网码号资源使用和调整审批系统</t>
-  </si>
-  <si>
-    <t>举报骚扰短信</t>
-  </si>
-  <si>
-    <t>wallhaven</t>
-  </si>
-  <si>
-    <t>高清壁纸</t>
-  </si>
-  <si>
-    <t>Greasy Fork</t>
-  </si>
-  <si>
-    <t>油猴脚本</t>
-  </si>
-  <si>
-    <t>Wallpaper Abyss</t>
-  </si>
-  <si>
-    <t>OpenYYY 开源云音乐</t>
-  </si>
-  <si>
-    <t>多种云音乐格式转MP3</t>
-  </si>
-  <si>
-    <t>大巫小站</t>
-  </si>
-  <si>
-    <t>软件推荐、影视推荐等</t>
-  </si>
-  <si>
-    <t>EDUMAIL</t>
-  </si>
-  <si>
-    <t>免费临时教育邮箱(收件)</t>
-  </si>
-  <si>
-    <t>报刊大全</t>
+    <t>破解软件中文频道</t>
+  </si>
+  <si>
+    <t>安卓</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF175CEB"/>
+        <sz val="10"/>
+        <u/>
+      </rPr>
+      <t>https://cron.qqe2.com/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF175CEB"/>
+        <sz val="10"/>
+        <u/>
+      </rPr>
+      <t>https://t.me/shareAliyun</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF175CEB"/>
+        <sz val="10"/>
+        <u/>
+      </rPr>
+      <t>https://tool.lu/timestamp/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF175CEB"/>
+        <sz val="10"/>
+        <u/>
+      </rPr>
+      <t>https://t.me/Aliyundrive_Share_Channel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF175CEB"/>
+        <sz val="10"/>
+        <u/>
+      </rPr>
+      <t>https://httpbin.org/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF175CEB"/>
+        <sz val="10"/>
+        <u/>
+      </rPr>
+      <t>https://www.wpzysq.com/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF175CEB"/>
+        <sz val="10"/>
+        <u/>
+      </rPr>
+      <t>https://macosicons.com/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF175CEB"/>
+        <sz val="10"/>
+        <u/>
+      </rPr>
+      <t>https://www.gequbao.com/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF175CEB"/>
+        <sz val="10"/>
+        <u/>
+      </rPr>
+      <t>https://www.json.cn/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF175CEB"/>
+        <sz val="10"/>
+        <u/>
+      </rPr>
+      <t>https://pt.sayqz.com/#/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF175CEB"/>
+        <sz val="10"/>
+        <u/>
+      </rPr>
+      <t>https://www.mujicv.com/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF175CEB"/>
+        <sz val="10"/>
+        <u/>
+      </rPr>
+      <t>https://www.xsmp3.com/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF175CEB"/>
+        <sz val="10"/>
+        <u/>
+      </rPr>
+      <t>https://www.cwjyz.com.cn/bank/index.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF175CEB"/>
+        <sz val="10"/>
+        <u/>
+      </rPr>
+      <t>https://onehu.xyz/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF175CEB"/>
+        <sz val="10"/>
+        <u/>
+      </rPr>
+      <t>https://nac.miit.gov.cn/#/notice/gxb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF175CEB"/>
+        <sz val="10"/>
+        <u/>
+      </rPr>
+      <t>https://wallhaven.cc/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF175CEB"/>
+        <sz val="10"/>
+        <u/>
+      </rPr>
+      <t>https://greasyfork.org/zh-CN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF175CEB"/>
+        <sz val="10"/>
+        <u/>
+      </rPr>
+      <t>https://wall.alphacoders.com/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF175CEB"/>
+        <sz val="10"/>
+        <u/>
+      </rPr>
+      <t>https://openyyy.com/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF175CEB"/>
+        <sz val="10"/>
+        <u/>
+      </rPr>
+      <t>https://new.wxredcover.cn/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF175CEB"/>
+        <sz val="10"/>
+        <u/>
+      </rPr>
+      <t>https://edumail.icu/mailbox</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF175CEB"/>
+        <sz val="10"/>
+        <u/>
+      </rPr>
+      <t>http://www.53bk.com/Baokan/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF175CEB"/>
+        <sz val="10"/>
+        <u/>
+      </rPr>
+      <t>https://heart.uselesses.com/</t>
+    </r>
   </si>
   <si>
     <r>
@@ -830,6 +1172,48 @@
   <si>
     <r>
       <rPr>
+        <rFont val="微软雅黑"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF175CEB"/>
+        <sz val="10"/>
+        <u/>
+      </rPr>
+      <t>https://t.me/kkaifenxiang</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF175CEB"/>
+        <sz val="10"/>
+        <u/>
+      </rPr>
+      <t>https://t.me/hbios</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF175CEB"/>
+        <sz val="10"/>
+        <u/>
+      </rPr>
+      <t>https://t.me/AppleP12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <b val="false"/>
         <i val="false"/>
         <strike val="false"/>
@@ -851,314 +1235,7 @@
         <sz val="10"/>
         <u/>
       </rPr>
-      <t>https://t.me/kkaifenxiang</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF175CEB"/>
-        <sz val="10"/>
-        <u/>
-      </rPr>
-      <t>https://cron.qqe2.com/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF175CEB"/>
-        <sz val="10"/>
-        <u/>
-      </rPr>
-      <t>https://t.me/shareAliyun</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF175CEB"/>
-        <sz val="10"/>
-        <u/>
-      </rPr>
-      <t>https://tool.lu/timestamp/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF175CEB"/>
-        <sz val="10"/>
-        <u/>
-      </rPr>
-      <t>https://t.me/Aliyundrive_Share_Channel</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF175CEB"/>
-        <sz val="10"/>
-        <u/>
-      </rPr>
-      <t>https://httpbin.org/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF175CEB"/>
-        <sz val="10"/>
-        <u/>
-      </rPr>
-      <t>https://www.wpzysq.com/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF175CEB"/>
-        <sz val="10"/>
-        <u/>
-      </rPr>
-      <t>https://macosicons.com/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF175CEB"/>
-        <sz val="10"/>
-        <u/>
-      </rPr>
-      <t>https://www.gequbao.com/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF175CEB"/>
-        <sz val="10"/>
-        <u/>
-      </rPr>
-      <t>https://www.json.cn/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF175CEB"/>
-        <sz val="10"/>
-        <u/>
-      </rPr>
-      <t>https://pt.sayqz.com/#/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF175CEB"/>
-        <sz val="10"/>
-        <u/>
-      </rPr>
-      <t>https://www.mujicv.com/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF175CEB"/>
-        <sz val="10"/>
-        <u/>
-      </rPr>
-      <t>https://www.xsmp3.com/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF175CEB"/>
-        <sz val="10"/>
-        <u/>
-      </rPr>
-      <t>https://www.cwjyz.com.cn/bank/index.html</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF175CEB"/>
-        <sz val="10"/>
-        <u/>
-      </rPr>
-      <t>https://onehu.xyz/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF175CEB"/>
-        <sz val="10"/>
-        <u/>
-      </rPr>
-      <t>https://nac.miit.gov.cn/#/notice/gxb</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF175CEB"/>
-        <sz val="10"/>
-        <u/>
-      </rPr>
-      <t>https://wallhaven.cc/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF175CEB"/>
-        <sz val="10"/>
-        <u/>
-      </rPr>
-      <t>https://greasyfork.org/zh-CN</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF175CEB"/>
-        <sz val="10"/>
-        <u/>
-      </rPr>
-      <t>https://wall.alphacoders.com/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF175CEB"/>
-        <sz val="10"/>
-        <u/>
-      </rPr>
-      <t>https://openyyy.com/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF175CEB"/>
-        <sz val="10"/>
-        <u/>
-      </rPr>
-      <t>https://new.wxredcover.cn/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF175CEB"/>
-        <sz val="10"/>
-        <u/>
-      </rPr>
-      <t>https://edumail.icu/mailbox</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="微软雅黑"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF175CEB"/>
-        <sz val="10"/>
-        <u/>
-      </rPr>
-      <t>http://www.53bk.com/Baokan/</t>
+      <t>https://t.me/PJAPK</t>
     </r>
   </si>
 </sst>
@@ -1188,15 +1265,15 @@
       <sz val="12"/>
     </font>
     <font>
+      <color rgb="FF1155CC"/>
+      <u/>
+    </font>
+    <font>
       <sz val="12"/>
     </font>
     <font>
       <color rgb="FFD8D8D8"/>
       <sz val="12"/>
-    </font>
-    <font>
-      <color rgb="FF1155CC"/>
-      <u/>
     </font>
   </fonts>
   <fills count="7">
@@ -1213,17 +1290,17 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor auto="true"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2C7FF"/>
-        <bgColor auto="true"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
         <bgColor auto="true"/>
       </patternFill>
     </fill>
@@ -1239,9 +1316,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
     <border>
       <left style="thin">
         <color rgb="FFCCCCCC"/>
@@ -1256,6 +1330,9 @@
         <color rgb="FFCCCCCC"/>
       </bottom>
     </border>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1272,64 +1349,64 @@
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="1" xfId="0">
+    <xf fontId="2" fillId="2" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="2" xfId="0">
+    <xf fontId="2" fillId="3" borderId="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="1" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf fontId="2" fillId="2" borderId="2" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="3" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="3" borderId="0" xfId="0">
+    <xf fontId="0" fillId="0" borderId="4" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="4" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf fontId="2" fillId="4" borderId="1" xfId="0">
+    <xf fontId="2" fillId="5" borderId="2" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf fontId="2" fillId="5" borderId="4" xfId="0">
+    <xf fontId="5" fillId="0" borderId="1" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="4" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" xfId="0">
+    <xf fontId="4" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="4" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf fontId="5" fillId="0" borderId="4" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf fontId="4" fillId="0" borderId="1" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="4" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="4" xfId="0">
+    <xf fontId="0" fillId="0" borderId="1" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf fontId="4" fillId="6" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="6" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="3" fillId="0" borderId="0" xfId="0">
+    <xf fontId="4" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1639,534 +1716,563 @@
   <sheetPr codeName="Apple">
     <tabColor/>
   </sheetPr>
-  <dimension ref="O20"/>
+  <dimension ref="O22"/>
   <sheetViews>
     <sheetView showGridLines="true" rightToLeft="false" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="13" defaultRowHeight="18" customHeight="true"/>
   <cols>
     <col min="1" max="1" width="19.5625" style="23" customWidth="true"/>
-    <col min="2" max="2" width="38.043" style="16" customWidth="true"/>
-    <col min="3" max="3" width="27.6641" style="16" customWidth="true"/>
-    <col min="4" max="4" width="6.34375" style="16" customWidth="true"/>
-    <col min="5" max="5" width="19.5625" style="16" customWidth="true"/>
-    <col min="6" max="6" width="29.6836" style="16" customWidth="true"/>
-    <col min="7" max="7" width="21.582" style="16" customWidth="true"/>
-    <col min="8" max="8" width="6.61328" style="16" customWidth="true"/>
-    <col min="9" max="9" width="24.2812" style="16" customWidth="true"/>
-    <col min="10" max="10" width="40.4727" style="16" customWidth="true"/>
-    <col min="11" max="11" width="22.6641" style="16" customWidth="true"/>
-    <col min="12" max="12" width="6.20312" style="16" customWidth="true"/>
-    <col min="13" max="13" width="24.6914" style="16" customWidth="true"/>
-    <col min="14" max="14" width="34.6719" style="16" customWidth="true"/>
-    <col min="15" max="15" width="17.0039" style="16" customWidth="true"/>
+    <col min="2" max="2" width="38.043" style="19" customWidth="true"/>
+    <col min="3" max="3" width="27.6641" style="19" customWidth="true"/>
+    <col min="4" max="4" width="6.34375" style="19" customWidth="true"/>
+    <col min="5" max="5" width="19.5625" style="19" customWidth="true"/>
+    <col min="6" max="6" width="29.6836" style="19" customWidth="true"/>
+    <col min="7" max="7" width="21.582" style="19" customWidth="true"/>
+    <col min="8" max="8" width="6.61328" style="19" customWidth="true"/>
+    <col min="9" max="9" width="24.2812" style="19" customWidth="true"/>
+    <col min="10" max="10" width="40.4727" style="19" customWidth="true"/>
+    <col min="11" max="11" width="22.6641" style="19" customWidth="true"/>
+    <col min="12" max="12" width="6.20312" style="19" customWidth="true"/>
+    <col min="13" max="13" width="24.6914" style="19" customWidth="true"/>
+    <col min="14" max="14" width="34.6719" style="19" customWidth="true"/>
+    <col min="15" max="15" width="17.0039" style="19" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="21" ht="30" customHeight="true">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s"/>
-      <c r="C1" s="4" t="s"/>
-      <c r="D1" s="4" t="s"/>
-      <c r="E1" s="4" t="s"/>
-      <c r="F1" s="4" t="s"/>
-      <c r="G1" s="5" t="s"/>
-      <c r="H1" s="6" t="s"/>
-      <c r="I1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="4" t="s"/>
-      <c r="K1" s="4" t="s"/>
-      <c r="L1" s="4" t="s"/>
-      <c r="M1" s="4" t="s"/>
-      <c r="N1" s="4" t="s"/>
-      <c r="O1" s="5" t="s"/>
-      <c r="P1" s="6" t="s"/>
-      <c r="Q1" s="6" t="s"/>
-      <c r="R1" s="6" t="s"/>
-      <c r="S1" s="6" t="s"/>
-      <c r="T1" s="6" t="s"/>
-      <c r="U1" s="6" t="s"/>
-      <c r="V1" s="6" t="s"/>
-      <c r="W1" s="6" t="s"/>
-      <c r="X1" s="6" t="s"/>
-      <c r="Y1" s="6" t="s"/>
-      <c r="Z1" s="6" t="s"/>
+      <c r="A1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="12" t="s"/>
+      <c r="C1" s="12" t="s"/>
+      <c r="D1" s="12" t="s"/>
+      <c r="E1" s="12" t="s"/>
+      <c r="F1" s="12" t="s"/>
+      <c r="G1" s="13" t="s"/>
+      <c r="H1" s="14" t="s"/>
+      <c r="I1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="12" t="s"/>
+      <c r="K1" s="12" t="s"/>
+      <c r="L1" s="12" t="s"/>
+      <c r="M1" s="12" t="s"/>
+      <c r="N1" s="12" t="s"/>
+      <c r="O1" s="13" t="s"/>
+      <c r="P1" s="14" t="s"/>
+      <c r="Q1" s="14" t="s"/>
+      <c r="R1" s="14" t="s"/>
+      <c r="S1" s="14" t="s"/>
+      <c r="T1" s="14" t="s"/>
+      <c r="U1" s="14" t="s"/>
+      <c r="V1" s="14" t="s"/>
+      <c r="W1" s="14" t="s"/>
+      <c r="X1" s="14" t="s"/>
+      <c r="Y1" s="14" t="s"/>
+      <c r="Z1" s="14" t="s"/>
     </row>
     <row r="2" spans="1:26" s="22" ht="30" customHeight="true">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s"/>
-      <c r="E2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="D2" s="16" t="s"/>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10" t="s"/>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="17" t="s"/>
+      <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="11" t="s"/>
-      <c r="M2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="L2" s="18" t="s"/>
+      <c r="M2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="10" t="s"/>
-      <c r="Q2" s="10" t="s"/>
-      <c r="R2" s="10" t="s"/>
-      <c r="S2" s="10" t="s"/>
-      <c r="T2" s="10" t="s"/>
-      <c r="U2" s="10" t="s"/>
-      <c r="V2" s="10" t="s"/>
-      <c r="W2" s="10" t="s"/>
-      <c r="X2" s="10" t="s"/>
-      <c r="Y2" s="10" t="s"/>
-      <c r="Z2" s="10" t="s"/>
+      <c r="P2" s="17" t="s"/>
+      <c r="Q2" s="17" t="s"/>
+      <c r="R2" s="17" t="s"/>
+      <c r="S2" s="17" t="s"/>
+      <c r="T2" s="17" t="s"/>
+      <c r="U2" s="17" t="s"/>
+      <c r="V2" s="17" t="s"/>
+      <c r="W2" s="17" t="s"/>
+      <c r="X2" s="17" t="s"/>
+      <c r="Y2" s="17" t="s"/>
+      <c r="Z2" s="17" t="s"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="16" t="s"/>
+      <c r="E3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="16" t="s"/>
+      <c r="E4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="8" t="s"/>
+      <c r="I4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="16" t="s"/>
+      <c r="E5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="8" t="s"/>
+      <c r="I5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="16" t="s"/>
+      <c r="E6" s="8" t="s"/>
+      <c r="F6" s="8" t="s"/>
+      <c r="G6" s="8" t="s"/>
+      <c r="I6" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="16" t="s"/>
+      <c r="E7" s="8" t="s"/>
+      <c r="F7" s="8" t="s"/>
+      <c r="G7" s="8" t="s"/>
+      <c r="I7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="16" t="s"/>
+      <c r="E8" s="8" t="s"/>
+      <c r="F8" s="8" t="s"/>
+      <c r="G8" s="8" t="s"/>
+      <c r="I8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="10" t="s"/>
+      <c r="M8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="16" t="s"/>
+      <c r="E9" s="8" t="s"/>
+      <c r="F9" s="8" t="s"/>
+      <c r="G9" s="8" t="s"/>
+      <c r="I9" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9" s="19" t="s"/>
+      <c r="M9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="16" t="s"/>
+      <c r="E10" s="8" t="s"/>
+      <c r="F10" s="8" t="s"/>
+      <c r="G10" s="8" t="s"/>
+      <c r="I10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10" s="19" t="s"/>
+      <c r="M10" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="8" t="s"/>
+      <c r="D11" s="16" t="s"/>
+      <c r="E11" s="8" t="s"/>
+      <c r="F11" s="8" t="s"/>
+      <c r="G11" s="8" t="s"/>
+      <c r="I11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="19" t="s"/>
+      <c r="M11" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="16" t="s"/>
+      <c r="E12" s="8" t="s"/>
+      <c r="F12" s="8" t="s"/>
+      <c r="G12" s="8" t="s"/>
+      <c r="I12" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="20" t="s"/>
+      <c r="B13" s="6" t="s"/>
+      <c r="C13" s="8" t="s"/>
+      <c r="D13" s="8" t="s"/>
+      <c r="E13" s="8" t="s"/>
+      <c r="F13" s="8" t="s"/>
+      <c r="G13" s="8" t="s"/>
+      <c r="M13" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O13" s="10" t="s"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="20" t="s"/>
+      <c r="B14" s="6" t="s"/>
+      <c r="C14" s="8" t="s"/>
+      <c r="D14" s="8" t="s"/>
+      <c r="E14" s="8" t="s"/>
+      <c r="F14" s="8" t="s"/>
+      <c r="G14" s="8" t="s"/>
+      <c r="M14" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" s="19" t="s"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="20" t="s"/>
+      <c r="B15" s="6" t="s"/>
+      <c r="C15" s="8" t="s"/>
+      <c r="D15" s="8" t="s"/>
+      <c r="E15" s="8" t="s"/>
+      <c r="F15" s="8" t="s"/>
+      <c r="G15" s="8" t="s"/>
+      <c r="M15" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="O15" s="19" t="s"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="20" t="s"/>
+      <c r="B16" s="6" t="s"/>
+      <c r="C16" s="8" t="s"/>
+      <c r="D16" s="8" t="s"/>
+      <c r="E16" s="8" t="s"/>
+      <c r="F16" s="8" t="s"/>
+      <c r="G16" s="8" t="s"/>
+      <c r="M16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O16" s="19" t="s"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="20" t="s"/>
+      <c r="B17" s="6" t="s"/>
+      <c r="C17" s="8" t="s"/>
+      <c r="D17" s="8" t="s"/>
+      <c r="E17" s="8" t="s"/>
+      <c r="F17" s="8" t="s"/>
+      <c r="G17" s="8" t="s"/>
+      <c r="M17" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="20" t="s"/>
+      <c r="B18" s="6" t="s"/>
+      <c r="C18" s="8" t="s"/>
+      <c r="D18" s="8" t="s"/>
+      <c r="E18" s="8" t="s"/>
+      <c r="F18" s="8" t="s"/>
+      <c r="G18" s="8" t="s"/>
+      <c r="M18" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="O18" s="19" t="s"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="20" t="s"/>
+      <c r="B19" s="6" t="s"/>
+      <c r="C19" s="8" t="s"/>
+      <c r="D19" s="8" t="s"/>
+      <c r="E19" s="8" t="s"/>
+      <c r="F19" s="8" t="s"/>
+      <c r="G19" s="8" t="s"/>
+      <c r="M19" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="9" t="s"/>
-      <c r="E3" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="16" t="s">
+      <c r="N19" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="O19" s="19" t="s"/>
+    </row>
+    <row r="20" spans="13:15">
+      <c r="M20" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="16" t="s">
+      <c r="N20" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="O20" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="M3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="16" t="s">
+    </row>
+    <row r="21" spans="13:15">
+      <c r="M21" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="O3" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="N21" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="O21" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="9" t="s"/>
-      <c r="E4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="17" t="s">
+    </row>
+    <row r="22" spans="13:15">
+      <c r="M22" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="17" t="s"/>
-      <c r="I4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="16" t="s">
+      <c r="N22" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="O22" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="M4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="9" t="s"/>
-      <c r="E5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" s="17" t="s"/>
-      <c r="I5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="9" t="s"/>
-      <c r="E6" s="17" t="s"/>
-      <c r="F6" s="17" t="s"/>
-      <c r="G6" s="17" t="s"/>
-      <c r="I6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="9" t="s"/>
-      <c r="E7" s="17" t="s"/>
-      <c r="F7" s="17" t="s"/>
-      <c r="G7" s="17" t="s"/>
-      <c r="I7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="9" t="s"/>
-      <c r="E8" s="17" t="s"/>
-      <c r="F8" s="17" t="s"/>
-      <c r="G8" s="17" t="s"/>
-      <c r="I8" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="K8" s="15" t="s"/>
-      <c r="M8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="9" t="s"/>
-      <c r="E9" s="17" t="s"/>
-      <c r="F9" s="17" t="s"/>
-      <c r="G9" s="17" t="s"/>
-      <c r="I9" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="K9" s="16" t="s"/>
-      <c r="M9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="9" t="s"/>
-      <c r="E10" s="17" t="s"/>
-      <c r="F10" s="17" t="s"/>
-      <c r="G10" s="17" t="s"/>
-      <c r="I10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="K10" s="16" t="s"/>
-      <c r="M10" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="17" t="s"/>
-      <c r="D11" s="9" t="s"/>
-      <c r="E11" s="17" t="s"/>
-      <c r="F11" s="17" t="s"/>
-      <c r="G11" s="17" t="s"/>
-      <c r="I11" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="K11" s="16" t="s"/>
-      <c r="M11" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="9" t="s"/>
-      <c r="E12" s="17" t="s"/>
-      <c r="F12" s="17" t="s"/>
-      <c r="G12" s="17" t="s"/>
-      <c r="I12" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="18" t="s"/>
-      <c r="B13" s="13" t="s"/>
-      <c r="C13" s="17" t="s"/>
-      <c r="D13" s="17" t="s"/>
-      <c r="E13" s="17" t="s"/>
-      <c r="F13" s="17" t="s"/>
-      <c r="G13" s="17" t="s"/>
-      <c r="M13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="O13" s="15" t="s"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="18" t="s"/>
-      <c r="B14" s="13" t="s"/>
-      <c r="C14" s="17" t="s"/>
-      <c r="D14" s="17" t="s"/>
-      <c r="E14" s="17" t="s"/>
-      <c r="F14" s="17" t="s"/>
-      <c r="G14" s="17" t="s"/>
-      <c r="M14" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="O14" s="16" t="s"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="18" t="s"/>
-      <c r="B15" s="13" t="s"/>
-      <c r="C15" s="17" t="s"/>
-      <c r="D15" s="17" t="s"/>
-      <c r="E15" s="17" t="s"/>
-      <c r="F15" s="17" t="s"/>
-      <c r="G15" s="17" t="s"/>
-      <c r="M15" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="O15" s="16" t="s"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="18" t="s"/>
-      <c r="B16" s="13" t="s"/>
-      <c r="C16" s="17" t="s"/>
-      <c r="D16" s="17" t="s"/>
-      <c r="E16" s="17" t="s"/>
-      <c r="F16" s="17" t="s"/>
-      <c r="G16" s="17" t="s"/>
-      <c r="M16" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="N16" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="O16" s="16" t="s"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="18" t="s"/>
-      <c r="B17" s="13" t="s"/>
-      <c r="C17" s="17" t="s"/>
-      <c r="D17" s="17" t="s"/>
-      <c r="E17" s="17" t="s"/>
-      <c r="F17" s="17" t="s"/>
-      <c r="G17" s="17" t="s"/>
-      <c r="M17" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="18" t="s"/>
-      <c r="B18" s="13" t="s"/>
-      <c r="C18" s="17" t="s"/>
-      <c r="D18" s="17" t="s"/>
-      <c r="E18" s="17" t="s"/>
-      <c r="F18" s="17" t="s"/>
-      <c r="G18" s="17" t="s"/>
-      <c r="M18" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="18" t="s"/>
-      <c r="B19" s="13" t="s"/>
-      <c r="C19" s="17" t="s"/>
-      <c r="D19" s="17" t="s"/>
-      <c r="E19" s="17" t="s"/>
-      <c r="F19" s="17" t="s"/>
-      <c r="G19" s="17" t="s"/>
-      <c r="M19" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="15:15">
-      <c r="O20" s="16" t="s"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2214,6 +2320,9 @@
     <hyperlink ref="N17" r:id="rId37"/>
     <hyperlink ref="N18" r:id="rId38"/>
     <hyperlink ref="N19" r:id="rId39"/>
+    <hyperlink ref="N20" r:id="rId40"/>
+    <hyperlink ref="N21" r:id="rId41"/>
+    <hyperlink ref="N22" r:id="rId42"/>
   </hyperlinks>
 </worksheet>
 </file>
@@ -2223,7 +2332,7 @@
   <sheetPr codeName="其他资源">
     <tabColor/>
   </sheetPr>
-  <dimension ref="B14"/>
+  <dimension ref="C15"/>
   <sheetViews>
     <sheetView showGridLines="true" workbookViewId="0"/>
   </sheetViews>
@@ -2239,232 +2348,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>63</v>
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C3" s="14" t="s"/>
-      <c r="E3" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G3" s="14" t="s"/>
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="7" t="s"/>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="7" t="s"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="14" t="s"/>
-      <c r="E4" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" s="14" t="s"/>
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="7" t="s"/>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="7" t="s"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="G5" s="14" t="s"/>
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="7" t="s"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>71</v>
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>73</v>
+        <v>14</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="17" t="s"/>
-      <c r="E7" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>76</v>
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="8" t="s"/>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="17" t="s"/>
-      <c r="E8" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="17" t="s"/>
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="8" t="s"/>
+      <c r="E8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="8" t="s"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="17" t="s"/>
-      <c r="E9" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>81</v>
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="8" t="s"/>
+      <c r="E9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>85</v>
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>88</v>
+      <c r="A11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>153</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>85</v>
+        <v>120</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>91</v>
+      <c r="A12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>155</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>92</v>
+        <v>122</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>94</v>
+      <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2495,6 +2615,7 @@
     <hyperlink ref="F12" r:id="rId19"/>
     <hyperlink ref="B13" r:id="rId20"/>
     <hyperlink ref="B14" r:id="rId21"/>
+    <hyperlink ref="B15" r:id="rId22"/>
   </hyperlinks>
 </worksheet>
 </file>